--- a/modules/trees_accounting/src/templates/template_accounting.xlsx
+++ b/modules/trees_accounting/src/templates/template_accounting.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="27690" windowHeight="12915"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="27690" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Перечет" sheetId="1" r:id="rId1"/>
+    <sheet name="Семенники" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Ступень толщины</t>
   </si>
@@ -40,6 +41,24 @@
   </si>
   <si>
     <t>Количество деревьев по породам</t>
+  </si>
+  <si>
+    <t>Перечет семенников по породам</t>
+  </si>
+  <si>
+    <t>Порода</t>
+  </si>
+  <si>
+    <t>Вид семенников</t>
+  </si>
+  <si>
+    <t>Диаметр</t>
+  </si>
+  <si>
+    <t>Колличество</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
@@ -255,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -284,17 +303,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,8 +321,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -317,11 +330,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +638,7 @@
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" activeCellId="4" sqref="Q3:R3 S3:T3 U3:V3 W3:X3 Y3:Z3"/>
+      <selection activeCell="Y3" sqref="Y3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,75 +663,75 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="21" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="27" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="22"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -736,7 +768,7 @@
       <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1967,6 +1999,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J3:K3"/>
@@ -1983,10 +2017,718 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="11" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="33" t="str">
+        <f>IF(SUM(J4:K26)=0,"",SUM(J4:K26))</f>
+        <v/>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="126">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>